--- a/DOC/DB編/社内管理_DB編.xlsx
+++ b/DOC/DB編/社内管理_DB編.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB4BA5-2372-4C7D-A9B8-70813F64C97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="842" firstSheet="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="21"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="842" firstSheet="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="履歴リスト" sheetId="1" r:id="rId1"/>
@@ -2043,6 +2043,15 @@
   </si>
   <si>
     <t>所得税と住民税マスター管理</t>
+  </si>
+  <si>
+    <t>マスタ_諸税(控除）削除</t>
+  </si>
+  <si>
+    <t>スッ</t>
+  </si>
+  <si>
+    <t>20232/08/23</t>
   </si>
 </sst>
 </file>
@@ -5172,7 +5181,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="552450" y="4143375"/>
+          <a:off x="552450" y="4105275"/>
           <a:ext cx="13058775" cy="4267200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5445,8 +5454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="H12" sqref="H12" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="18.3" x14ac:dyDescent="0.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5603,16 +5612,32 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="43">
+        <v>10</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="D13" s="44">
+        <v>45161</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="14">
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="B14" s="43">
+        <v>11</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>665</v>
+      </c>
+      <c r="D14" s="44">
+        <v>45161</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="43"/>
@@ -5732,7 +5757,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -7248,7 +7273,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -9455,7 +9480,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -11620,7 +11645,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -13059,7 +13084,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -13105,7 +13130,7 @@
       <c r="AI1" s="10"/>
       <c r="AJ1" s="11"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="63" t="s">
         <v>23</v>
       </c>
@@ -13155,7 +13180,7 @@
       <c r="AI2" s="63"/>
       <c r="AJ2" s="63"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
@@ -13263,7 +13288,7 @@
       <c r="AI4" s="5"/>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" customHeight="1" ht="29">
+    <row r="5" customHeight="1" ht="27">
       <c r="A5" s="72">
         <v>2</v>
       </c>
@@ -13315,7 +13340,7 @@
       <c r="AI5" s="5"/>
       <c r="AJ5" s="13"/>
     </row>
-    <row r="6" customHeight="1" ht="29">
+    <row r="6" customHeight="1" ht="27">
       <c r="A6" s="72">
         <v>3</v>
       </c>
@@ -13367,7 +13392,7 @@
       <c r="AI6" s="5"/>
       <c r="AJ6" s="13"/>
     </row>
-    <row r="7" customHeight="1" ht="29">
+    <row r="7" customHeight="1" ht="27">
       <c r="A7" s="72">
         <v>4</v>
       </c>
@@ -13652,7 +13677,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -13698,7 +13723,7 @@
       <c r="AI1" s="10"/>
       <c r="AJ1" s="11"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="63" t="s">
         <v>23</v>
       </c>
@@ -13748,7 +13773,7 @@
       <c r="AI2" s="63"/>
       <c r="AJ2" s="63"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
@@ -13958,7 +13983,7 @@
       <c r="AI6" s="128"/>
       <c r="AJ6" s="129"/>
     </row>
-    <row r="7" customHeight="1" ht="23">
+    <row r="7" customHeight="1" ht="21">
       <c r="A7" s="72">
         <v>4</v>
       </c>
@@ -14008,7 +14033,7 @@
       <c r="AI7" s="128"/>
       <c r="AJ7" s="129"/>
     </row>
-    <row r="8" customHeight="1" ht="23">
+    <row r="8" customHeight="1" ht="21">
       <c r="A8" s="72">
         <v>5</v>
       </c>
@@ -14536,7 +14561,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -14582,7 +14607,7 @@
       <c r="AI1" s="10"/>
       <c r="AJ1" s="11"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="63" t="s">
         <v>23</v>
       </c>
@@ -14632,7 +14657,7 @@
       <c r="AI2" s="63"/>
       <c r="AJ2" s="63"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
@@ -14950,7 +14975,7 @@
       <c r="AI8" s="5"/>
       <c r="AJ8" s="13"/>
     </row>
-    <row r="9" customHeight="1" ht="19">
+    <row r="9">
       <c r="A9" s="72">
         <v>6</v>
       </c>
@@ -15050,7 +15075,7 @@
       <c r="AI10" s="128"/>
       <c r="AJ10" s="129"/>
     </row>
-    <row r="11" customHeight="1" ht="26">
+    <row r="11" customHeight="1" ht="24">
       <c r="A11" s="72">
         <v>8</v>
       </c>
@@ -15436,7 +15461,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -15482,7 +15507,7 @@
       <c r="AI1" s="10"/>
       <c r="AJ1" s="11"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="63" t="s">
         <v>23</v>
       </c>
@@ -15532,7 +15557,7 @@
       <c r="AI2" s="63"/>
       <c r="AJ2" s="63"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
@@ -15744,7 +15769,7 @@
       <c r="AI6" s="5"/>
       <c r="AJ6" s="13"/>
     </row>
-    <row r="7" customHeight="1" ht="23">
+    <row r="7" customHeight="1" ht="21">
       <c r="A7" s="72">
         <v>8</v>
       </c>
@@ -15792,7 +15817,7 @@
       <c r="AI7" s="128"/>
       <c r="AJ7" s="129"/>
     </row>
-    <row r="8" customHeight="1" ht="23">
+    <row r="8" customHeight="1" ht="21">
       <c r="A8" s="72">
         <v>9</v>
       </c>
@@ -16269,7 +16294,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -17084,7 +17109,7 @@
   </sheetPr>
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0" topLeftCell="A1">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0" topLeftCell="A4">
       <selection activeCell="O10" sqref="O10:Q10" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -17155,7 +17180,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -17201,7 +17226,7 @@
       <c r="AI1" s="10"/>
       <c r="AJ1" s="11"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="63" t="s">
         <v>23</v>
       </c>
@@ -17249,7 +17274,7 @@
       <c r="AI2" s="63"/>
       <c r="AJ2" s="63"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="69" t="s">
         <v>1</v>
       </c>
@@ -17675,7 +17700,7 @@
       <c r="AI10" s="150"/>
       <c r="AJ10" s="151"/>
     </row>
-    <row r="11" customHeight="1" ht="50">
+    <row r="11" customHeight="1" ht="48">
       <c r="A11" s="72">
         <v>8</v>
       </c>
@@ -18140,7 +18165,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -18796,7 +18821,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -19499,8 +19524,8 @@
   </sheetPr>
   <dimension ref="A1:AJ23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0" topLeftCell="A1" tabSelected="1">
-      <selection activeCell="H18" sqref="H18:N18" activeCellId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="AB7" sqref="AB7:AC7" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="18.3" x14ac:dyDescent="0.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19570,7 +19595,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -19922,9 +19947,7 @@
       <c r="Y7" s="73"/>
       <c r="Z7" s="73"/>
       <c r="AA7" s="73"/>
-      <c r="AB7" s="76" t="s">
-        <v>39</v>
-      </c>
+      <c r="AB7" s="76"/>
       <c r="AC7" s="76"/>
       <c r="AD7" s="76" t="s">
         <v>44</v>
@@ -21545,7 +21568,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -22666,7 +22689,7 @@
     <col min="36" max="36" width="6.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -22712,7 +22735,7 @@
       <c r="AI1" s="10"/>
       <c r="AJ1" s="11"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="63" t="s">
         <v>23</v>
       </c>
@@ -22762,7 +22785,7 @@
       <c r="AI2" s="63"/>
       <c r="AJ2" s="63"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="100" t="s">
         <v>1</v>
       </c>
@@ -23234,7 +23257,7 @@
     <col min="39" max="39" width="5.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -23280,7 +23303,7 @@
       <c r="AI1" s="10"/>
       <c r="AJ1" s="11"/>
     </row>
-    <row r="2" ht="18">
+    <row r="2">
       <c r="A2" s="63" t="s">
         <v>23</v>
       </c>
@@ -23330,7 +23353,7 @@
       <c r="AI2" s="63"/>
       <c r="AJ2" s="63"/>
     </row>
-    <row r="3" ht="18">
+    <row r="3">
       <c r="A3" s="100" t="s">
         <v>1</v>
       </c>
@@ -23871,7 +23894,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -25266,7 +25289,7 @@
     <col min="61" max="61" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -26258,7 +26281,7 @@
     <col min="61" max="61" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -27055,7 +27078,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -28487,7 +28510,7 @@
     <col min="61" max="61" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>
@@ -29706,7 +29729,7 @@
     <col min="63" max="63" width="3.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22">
+    <row r="1" ht="21">
       <c r="A1" s="59" t="s">
         <v>19</v>
       </c>

--- a/DOC/DB編/社内管理_DB編.xlsx
+++ b/DOC/DB編/社内管理_DB編.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB4BA5-2372-4C7D-A9B8-70813F64C97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="842" firstSheet="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="842" firstSheet="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="履歴リスト" sheetId="1" r:id="rId1"/>
@@ -23823,8 +23823,8 @@
   </sheetPr>
   <dimension ref="A1:AM22"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView zoomScale="95" workbookViewId="0" tabSelected="1">
+      <selection activeCell="AN24" sqref="AN24" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.3" x14ac:dyDescent="0.5" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DOC/DB編/社内管理_DB編.xlsx
+++ b/DOC/DB編/社内管理_DB編.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FB4BA5-2372-4C7D-A9B8-70813F64C97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="842" firstSheet="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="3"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" tabRatio="842" firstSheet="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="履歴リスト" sheetId="1" r:id="rId1"/>
@@ -23823,8 +23823,8 @@
   </sheetPr>
   <dimension ref="A1:AM22"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0" tabSelected="1">
-      <selection activeCell="AN24" sqref="AN24" activeCellId="0"/>
+    <sheetView zoomScale="95" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.3" x14ac:dyDescent="0.5" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25220,7 +25220,7 @@
   </sheetPr>
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <selection activeCell="AM24" sqref="AM24"/>
     </sheetView>
   </sheetViews>

--- a/DOC/DB編/社内管理_DB編.xlsx
+++ b/DOC/DB編/社内管理_DB編.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\Downloads\emsm\DOC\DB編\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42695DF6-C516-4A0F-9BDB-7256ACF7C5D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD90893-4B01-47B0-AEB8-0D6178953517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="842" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1008" yWindow="720" windowWidth="17280" windowHeight="11640" tabRatio="842" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="履歴リスト" sheetId="1" r:id="rId1"/>
@@ -2133,10 +2133,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -2283,9 +2279,13 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>順番のID</t>
+    <t>accountID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>登録のID</t>
     <rPh sb="0" eb="2">
-      <t>ジュンバン</t>
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -6202,7 +6202,7 @@
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5:AA5"/>
+      <selection activeCell="T4" sqref="T4:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6250,7 +6250,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
       <c r="AG1" s="59" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AH1" s="9"/>
       <c r="AI1" s="10"/>
@@ -6265,7 +6265,7 @@
       <c r="D2" s="69"/>
       <c r="E2" s="69"/>
       <c r="F2" s="77" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G2" s="78"/>
       <c r="H2" s="78"/>
@@ -6280,7 +6280,7 @@
       <c r="O2" s="78"/>
       <c r="P2" s="78"/>
       <c r="Q2" s="68" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R2" s="69"/>
       <c r="S2" s="69"/>
@@ -6300,7 +6300,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="68" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AH2" s="69"/>
       <c r="AI2" s="69"/>
@@ -6368,14 +6368,14 @@
       </c>
       <c r="B4" s="104"/>
       <c r="C4" s="105" t="s">
-        <v>679</v>
+        <v>702</v>
       </c>
       <c r="D4" s="106"/>
       <c r="E4" s="106"/>
       <c r="F4" s="106"/>
       <c r="G4" s="107"/>
       <c r="H4" s="105" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I4" s="106"/>
       <c r="J4" s="106"/>
@@ -6422,14 +6422,14 @@
       </c>
       <c r="B5" s="104"/>
       <c r="C5" s="105" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D5" s="106"/>
       <c r="E5" s="106"/>
       <c r="F5" s="106"/>
       <c r="G5" s="107"/>
       <c r="H5" s="105" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I5" s="106"/>
       <c r="J5" s="106"/>
@@ -6476,14 +6476,14 @@
       </c>
       <c r="B6" s="104"/>
       <c r="C6" s="105" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D6" s="106"/>
       <c r="E6" s="106"/>
       <c r="F6" s="106"/>
       <c r="G6" s="107"/>
       <c r="H6" s="105" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I6" s="106"/>
       <c r="J6" s="106"/>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="108" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="U6" s="109"/>
       <c r="V6" s="109"/>
@@ -6528,14 +6528,14 @@
       </c>
       <c r="B7" s="104"/>
       <c r="C7" s="105" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D7" s="106"/>
       <c r="E7" s="106"/>
       <c r="F7" s="106"/>
       <c r="G7" s="107"/>
       <c r="H7" s="105" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I7" s="106"/>
       <c r="J7" s="106"/>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="S7" s="5"/>
       <c r="T7" s="108" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="U7" s="109"/>
       <c r="V7" s="109"/>
@@ -6580,14 +6580,14 @@
       </c>
       <c r="B8" s="104"/>
       <c r="C8" s="105" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
       <c r="F8" s="106"/>
       <c r="G8" s="107"/>
       <c r="H8" s="105" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I8" s="106"/>
       <c r="J8" s="106"/>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="108" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U8" s="109"/>
       <c r="V8" s="109"/>
@@ -6632,14 +6632,14 @@
       </c>
       <c r="B9" s="104"/>
       <c r="C9" s="105" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D9" s="106"/>
       <c r="E9" s="106"/>
       <c r="F9" s="106"/>
       <c r="G9" s="107"/>
       <c r="H9" s="105" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I9" s="106"/>
       <c r="J9" s="106"/>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="108" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="U9" s="109"/>
       <c r="V9" s="109"/>
@@ -6684,14 +6684,14 @@
       </c>
       <c r="B10" s="104"/>
       <c r="C10" s="105" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
       <c r="G10" s="107"/>
       <c r="H10" s="105" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I10" s="106"/>
       <c r="J10" s="106"/>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="108" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U10" s="109"/>
       <c r="V10" s="109"/>
@@ -8008,7 +8008,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="48" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AF1" s="9"/>
       <c r="AG1" s="10"/>
@@ -8023,7 +8023,7 @@
       <c r="D2" s="69"/>
       <c r="E2" s="69"/>
       <c r="F2" s="77" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G2" s="78"/>
       <c r="H2" s="78"/>
@@ -8038,7 +8038,7 @@
       <c r="O2" s="78"/>
       <c r="P2" s="78"/>
       <c r="Q2" s="77" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R2" s="78"/>
       <c r="S2" s="78"/>
@@ -8056,7 +8056,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="68" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AF2" s="69"/>
       <c r="AG2" s="69"/>
@@ -8124,14 +8124,14 @@
       </c>
       <c r="B4" s="104"/>
       <c r="C4" s="105" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D4" s="106"/>
       <c r="E4" s="106"/>
       <c r="F4" s="106"/>
       <c r="G4" s="107"/>
       <c r="H4" s="105" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I4" s="106"/>
       <c r="J4" s="106"/>
@@ -8149,7 +8149,7 @@
       </c>
       <c r="S4" s="5"/>
       <c r="T4" s="108" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U4" s="109"/>
       <c r="V4" s="109"/>
@@ -8178,14 +8178,14 @@
       </c>
       <c r="B5" s="104"/>
       <c r="C5" s="105" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D5" s="106"/>
       <c r="E5" s="106"/>
       <c r="F5" s="106"/>
       <c r="G5" s="107"/>
       <c r="H5" s="105" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I5" s="106"/>
       <c r="J5" s="106"/>
@@ -8203,7 +8203,7 @@
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="108" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U5" s="109"/>
       <c r="V5" s="109"/>

--- a/DOC/DB編/社内管理_DB編.xlsx
+++ b/DOC/DB編/社内管理_DB編.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/DB編/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026C8ACC-E930-D04B-8341-4901C79E7DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2927348-2B33-1A4F-932C-743D6401EBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="1200" windowWidth="22980" windowHeight="14440" tabRatio="945" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="1200" windowWidth="22980" windowHeight="14440" tabRatio="945" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課題" sheetId="14" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="898">
   <si>
     <t>　　　　　　　　　　　　　変更リスト</t>
   </si>
@@ -3481,10 +3481,6 @@
   </si>
   <si>
     <t>テーブル「transport」のカラム「BusinessTripName」の長さを50に変更</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>m_expenses</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -24767,7 +24763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -25273,7 +25269,7 @@
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
       <c r="F2" s="79" t="s">
-        <v>898</v>
+        <v>744</v>
       </c>
       <c r="G2" s="79"/>
       <c r="H2" s="80"/>
@@ -28039,7 +28035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA686F05-C8AD-4393-A2F2-FB40B2D27481}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
